--- a/Code/Results/Cases/Case_6_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_25/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.99521173137606</v>
+        <v>1.206907427941331</v>
       </c>
       <c r="C2">
-        <v>0.3390224559127546</v>
+        <v>0.09899393160898384</v>
       </c>
       <c r="D2">
-        <v>0.03213796116142031</v>
+        <v>0.06554289105928746</v>
       </c>
       <c r="E2">
-        <v>0.03427265647116684</v>
+        <v>0.07310882483902148</v>
       </c>
       <c r="F2">
-        <v>1.512874667459627</v>
+        <v>0.6061738782151522</v>
       </c>
       <c r="G2">
-        <v>0.0008018262362223882</v>
+        <v>0.0008120722898832298</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6814989793070154</v>
+        <v>0.9506198970991022</v>
       </c>
       <c r="L2">
-        <v>0.3137463829440179</v>
+        <v>0.2510297864113653</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9366959065007023</v>
+        <v>0.8698006256390682</v>
       </c>
       <c r="O2">
-        <v>1.183298223495527</v>
+        <v>1.875363517470902</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.604104045502424</v>
+        <v>1.051155895516445</v>
       </c>
       <c r="C3">
-        <v>0.2971741412309399</v>
+        <v>0.09838444202940622</v>
       </c>
       <c r="D3">
-        <v>0.0340884307744016</v>
+        <v>0.06035630326515218</v>
       </c>
       <c r="E3">
-        <v>0.03309644220763808</v>
+        <v>0.06816131226731414</v>
       </c>
       <c r="F3">
-        <v>1.383657431557936</v>
+        <v>0.578003790292172</v>
       </c>
       <c r="G3">
-        <v>0.0008090116813944351</v>
+        <v>0.0008157574499393417</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5896892532243214</v>
+        <v>0.8260005511558859</v>
       </c>
       <c r="L3">
-        <v>0.2756467485388896</v>
+        <v>0.2214268732976166</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9850819989308874</v>
+        <v>0.9127835227999013</v>
       </c>
       <c r="O3">
-        <v>1.092680108846935</v>
+        <v>1.830202620899058</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.367318542316355</v>
+        <v>0.9559963266241596</v>
       </c>
       <c r="C4">
-        <v>0.2716538875344554</v>
+        <v>0.09803031689145669</v>
       </c>
       <c r="D4">
-        <v>0.03532051384071222</v>
+        <v>0.05715565066100226</v>
       </c>
       <c r="E4">
-        <v>0.03242748198076484</v>
+        <v>0.06522352685834321</v>
       </c>
       <c r="F4">
-        <v>1.307492386965663</v>
+        <v>0.5617491351675667</v>
       </c>
       <c r="G4">
-        <v>0.0008135505182048185</v>
+        <v>0.0008180981030309065</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5340105024685329</v>
+        <v>0.7496389769032987</v>
       </c>
       <c r="L4">
-        <v>0.2526937730626884</v>
+        <v>0.2034690895041678</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.016420168031516</v>
+        <v>0.9403042653658167</v>
       </c>
       <c r="O4">
-        <v>1.039616231593342</v>
+        <v>1.805852247728836</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.271565023621292</v>
+        <v>0.9173206820244957</v>
       </c>
       <c r="C5">
-        <v>0.2612878447398543</v>
+        <v>0.09789102518786663</v>
       </c>
       <c r="D5">
-        <v>0.03583099220174413</v>
+        <v>0.05584712019955163</v>
       </c>
       <c r="E5">
-        <v>0.0321675202236289</v>
+        <v>0.06405021044144732</v>
       </c>
       <c r="F5">
-        <v>1.277184119435461</v>
+        <v>0.5553745361192028</v>
       </c>
       <c r="G5">
-        <v>0.0008154331969518149</v>
+        <v>0.0008190718473360505</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5114709896221612</v>
+        <v>0.7185487574423632</v>
       </c>
       <c r="L5">
-        <v>0.2434389861318067</v>
+        <v>0.1962013368432167</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.02958320175609</v>
+        <v>0.9517966521076957</v>
       </c>
       <c r="O5">
-        <v>1.018586102479439</v>
+        <v>1.796741703707156</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.25570689353242</v>
+        <v>0.9109043641637697</v>
       </c>
       <c r="C6">
-        <v>0.2595683192526934</v>
+        <v>0.09786819790875256</v>
       </c>
       <c r="D6">
-        <v>0.03591625627957118</v>
+        <v>0.05562957813515368</v>
       </c>
       <c r="E6">
-        <v>0.03212509675577735</v>
+        <v>0.0638567862504793</v>
       </c>
       <c r="F6">
-        <v>1.272193606598222</v>
+        <v>0.5543307363840881</v>
       </c>
       <c r="G6">
-        <v>0.0008157478434346446</v>
+        <v>0.0008192347480577225</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.507736709533738</v>
+        <v>0.7133876074103824</v>
       </c>
       <c r="L6">
-        <v>0.2419078652142304</v>
+        <v>0.1949974286128082</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.031792141727166</v>
+        <v>0.9537215292182299</v>
       </c>
       <c r="O6">
-        <v>1.015128430017654</v>
+        <v>1.795276920625469</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.366024320422298</v>
+        <v>0.9554743384762219</v>
       </c>
       <c r="C7">
-        <v>0.2715139641460382</v>
+        <v>0.09802841808709672</v>
       </c>
       <c r="D7">
-        <v>0.03532736468339537</v>
+        <v>0.05713802077755048</v>
       </c>
       <c r="E7">
-        <v>0.03242392579064557</v>
+        <v>0.06520760818030169</v>
       </c>
       <c r="F7">
-        <v>1.307080772111817</v>
+        <v>0.5616621720078285</v>
       </c>
       <c r="G7">
-        <v>0.0008135757733155537</v>
+        <v>0.0008181111543469899</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5337059498931964</v>
+        <v>0.7492195854840702</v>
       </c>
       <c r="L7">
-        <v>0.2525685752031706</v>
+        <v>0.203370876957095</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.016596121874763</v>
+        <v>0.9404581405819945</v>
       </c>
       <c r="O7">
-        <v>1.039330275898564</v>
+        <v>1.805726138056627</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.859595143631338</v>
+        <v>1.153096198981359</v>
       </c>
       <c r="C8">
-        <v>0.3245504243811865</v>
+        <v>0.09877958229058592</v>
       </c>
       <c r="D8">
-        <v>0.03280314771651804</v>
+        <v>0.06375776589991489</v>
       </c>
       <c r="E8">
-        <v>0.0338555839628274</v>
+        <v>0.07138136809639306</v>
       </c>
       <c r="F8">
-        <v>1.467618601209125</v>
+        <v>0.5962367581046024</v>
       </c>
       <c r="G8">
-        <v>0.0008042781446966346</v>
+        <v>0.0008133269440676372</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.649684040047589</v>
+        <v>0.9076119159668394</v>
       </c>
       <c r="L8">
-        <v>0.3005107238522413</v>
+        <v>0.2407744025132246</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9530306354002533</v>
+        <v>0.8843828194361203</v>
       </c>
       <c r="O8">
-        <v>1.151484688304265</v>
+        <v>1.859067891545976</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.859352000919728</v>
+        <v>1.545170512615726</v>
       </c>
       <c r="C9">
-        <v>0.4304548745384693</v>
+        <v>0.1004142316816115</v>
       </c>
       <c r="D9">
-        <v>0.02814116059866678</v>
+        <v>0.07662167296799538</v>
       </c>
       <c r="E9">
-        <v>0.03712201084046818</v>
+        <v>0.08434348338553121</v>
       </c>
       <c r="F9">
-        <v>1.811020434566402</v>
+        <v>0.6729100064285163</v>
       </c>
       <c r="G9">
-        <v>0.000786996525148575</v>
+        <v>0.0008045489591592843</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8838153985231259</v>
+        <v>1.220004396608715</v>
       </c>
       <c r="L9">
-        <v>0.3986131654259992</v>
+        <v>0.3160861483491715</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8421448346490479</v>
+        <v>0.783680778374384</v>
       </c>
       <c r="O9">
-        <v>1.394524120112308</v>
+        <v>1.992249584775408</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.621395578764179</v>
+        <v>1.837183501637156</v>
       </c>
       <c r="C10">
-        <v>0.5102198911885978</v>
+        <v>0.1017172486013749</v>
       </c>
       <c r="D10">
-        <v>0.02491493719243465</v>
+        <v>0.08601691622132535</v>
       </c>
       <c r="E10">
-        <v>0.03985752359824701</v>
+        <v>0.09447972554620421</v>
       </c>
       <c r="F10">
-        <v>2.0859771688162</v>
+        <v>0.7355445814823867</v>
       </c>
       <c r="G10">
-        <v>0.0007747933899352155</v>
+        <v>0.0007984463401322587</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.061775383483052</v>
+        <v>1.451446524608173</v>
       </c>
       <c r="L10">
-        <v>0.4740973948261882</v>
+        <v>0.3729569308391802</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7703594498203756</v>
+        <v>0.7157808240994621</v>
       </c>
       <c r="O10">
-        <v>1.591278242793678</v>
+        <v>2.110131834009195</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.97608856336592</v>
+        <v>1.971170424880455</v>
       </c>
       <c r="C11">
-        <v>0.5471353069533222</v>
+        <v>0.1023330939811444</v>
       </c>
       <c r="D11">
-        <v>0.02349687890868091</v>
+        <v>0.09028267168295656</v>
       </c>
       <c r="E11">
-        <v>0.04118883560448872</v>
+        <v>0.09924568236041154</v>
       </c>
       <c r="F11">
-        <v>2.217302945855479</v>
+        <v>0.765618817806498</v>
       </c>
       <c r="G11">
-        <v>0.0007693275814174672</v>
+        <v>0.0007957403283639633</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.144494725702586</v>
+        <v>1.557354740288929</v>
       </c>
       <c r="L11">
-        <v>0.5094080290367629</v>
+        <v>0.3992443714875122</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7401323505847159</v>
+        <v>0.6863169696826326</v>
       </c>
       <c r="O11">
-        <v>1.685775349645425</v>
+        <v>2.168728690488791</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.111749093185495</v>
+        <v>2.022097763709667</v>
       </c>
       <c r="C12">
-        <v>0.5612240382081097</v>
+        <v>0.102569702407969</v>
       </c>
       <c r="D12">
-        <v>0.02296768649521219</v>
+        <v>0.09189713767246133</v>
       </c>
       <c r="E12">
-        <v>0.04170677402096779</v>
+        <v>0.1010746101576636</v>
       </c>
       <c r="F12">
-        <v>2.268055564087604</v>
+        <v>0.7772533439490559</v>
       </c>
       <c r="G12">
-        <v>0.0007672681094482398</v>
+        <v>0.0007947252779110792</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.176116343796011</v>
+        <v>1.59756668296049</v>
       </c>
       <c r="L12">
-        <v>0.5229407712721184</v>
+        <v>0.4092657955831669</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7290667431901099</v>
+        <v>0.6753740478856081</v>
       </c>
       <c r="O12">
-        <v>1.72237507607322</v>
+        <v>2.191687906930326</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.082469035442614</v>
+        <v>2.011120822620967</v>
       </c>
       <c r="C13">
-        <v>0.5581845713834355</v>
+        <v>0.1025185919112488</v>
       </c>
       <c r="D13">
-        <v>0.02308129900185008</v>
+        <v>0.09154946790719265</v>
       </c>
       <c r="E13">
-        <v>0.04159459073086502</v>
+        <v>0.1006796118249369</v>
       </c>
       <c r="F13">
-        <v>2.257077475456811</v>
+        <v>0.7747363862304724</v>
       </c>
       <c r="G13">
-        <v>0.0007677112289313175</v>
+        <v>0.0007949434646839496</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.169292072730585</v>
+        <v>1.588901286622956</v>
       </c>
       <c r="L13">
-        <v>0.5200187065766642</v>
+        <v>0.4071044083022031</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7314324436530981</v>
+        <v>0.6777211065306226</v>
       </c>
       <c r="O13">
-        <v>1.714454709803647</v>
+        <v>2.186708073985358</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.987221290819377</v>
+        <v>1.975356307072389</v>
       </c>
       <c r="C14">
-        <v>0.5482920798386601</v>
+        <v>0.1023524912438987</v>
       </c>
       <c r="D14">
-        <v>0.02345318147198627</v>
+        <v>0.09041551071156562</v>
       </c>
       <c r="E14">
-        <v>0.04123116218698364</v>
+        <v>0.09939565384501137</v>
       </c>
       <c r="F14">
-        <v>2.221457141118535</v>
+        <v>0.7665709544230026</v>
       </c>
       <c r="G14">
-        <v>0.0007691579528056149</v>
+        <v>0.0007956566284951278</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.147090021253035</v>
+        <v>1.560660758412411</v>
       </c>
       <c r="L14">
-        <v>0.5105180096005597</v>
+        <v>0.4000674565083386</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7392141517780715</v>
+        <v>0.6854123347039192</v>
       </c>
       <c r="O14">
-        <v>1.68876948172263</v>
+        <v>2.170601801803571</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.929060615742401</v>
+        <v>1.953474921675223</v>
       </c>
       <c r="C15">
-        <v>0.5422475309010224</v>
+        <v>0.102251195248158</v>
       </c>
       <c r="D15">
-        <v>0.02368200714837254</v>
+        <v>0.0897208232669513</v>
       </c>
       <c r="E15">
-        <v>0.04101038984528138</v>
+        <v>0.09861239733361415</v>
       </c>
       <c r="F15">
-        <v>2.199775734980193</v>
+        <v>0.7616020117101812</v>
       </c>
       <c r="G15">
-        <v>0.0007700453934807304</v>
+        <v>0.0007960947066326439</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.13353076942677</v>
+        <v>1.543377055556732</v>
       </c>
       <c r="L15">
-        <v>0.5047202547901009</v>
+        <v>0.3957660548215927</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7440312559977116</v>
+        <v>0.6901516513509351</v>
       </c>
       <c r="O15">
-        <v>1.673145866686312</v>
+        <v>2.160838198095064</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.598393045116211</v>
+        <v>1.828452287914331</v>
       </c>
       <c r="C16">
-        <v>0.5078216367241168</v>
+        <v>0.1016774730400556</v>
       </c>
       <c r="D16">
-        <v>0.02500866265882395</v>
+        <v>0.08573799902489299</v>
       </c>
       <c r="E16">
-        <v>0.03977237623847252</v>
+        <v>0.09417153497625463</v>
       </c>
       <c r="F16">
-        <v>2.077530708045828</v>
+        <v>0.7336125487473311</v>
       </c>
       <c r="G16">
-        <v>0.0007751521488998632</v>
+        <v>0.0007986245593109351</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.056408621117185</v>
+        <v>1.444539161634083</v>
       </c>
       <c r="L16">
-        <v>0.4718111160325122</v>
+        <v>0.3712479586253608</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7723863401502129</v>
+        <v>0.7177358210283398</v>
       </c>
       <c r="O16">
-        <v>1.585211203310863</v>
+        <v>2.106407045977932</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.397726122958204</v>
+        <v>1.752065871131208</v>
       </c>
       <c r="C17">
-        <v>0.4868766713071864</v>
+        <v>0.1013314826072929</v>
       </c>
       <c r="D17">
-        <v>0.02583565963027445</v>
+        <v>0.0832927715378986</v>
       </c>
       <c r="E17">
-        <v>0.03903603851795623</v>
+        <v>0.09148819386901508</v>
       </c>
       <c r="F17">
-        <v>2.004221188477587</v>
+        <v>0.716859854166799</v>
       </c>
       <c r="G17">
-        <v>0.0007783055256327064</v>
+        <v>0.0008001942032276814</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.009578256164247</v>
+        <v>1.384076903782613</v>
       </c>
       <c r="L17">
-        <v>0.4518860696315983</v>
+        <v>0.3563184644145139</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7904245442468394</v>
+        <v>0.7350292177605926</v>
       </c>
       <c r="O17">
-        <v>1.532610973191098</v>
+        <v>2.074326587302551</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.283051543430645</v>
+        <v>1.708237002856976</v>
       </c>
       <c r="C18">
-        <v>0.4748877011857928</v>
+        <v>0.1011346466931116</v>
       </c>
       <c r="D18">
-        <v>0.02631594590242847</v>
+        <v>0.08188555190304925</v>
       </c>
       <c r="E18">
-        <v>0.03862061154232599</v>
+        <v>0.08995926985526026</v>
       </c>
       <c r="F18">
-        <v>1.962635226097177</v>
+        <v>0.707371813021993</v>
       </c>
       <c r="G18">
-        <v>0.0007801274387905233</v>
+        <v>0.0008011036458499338</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9828058394858203</v>
+        <v>1.349358256329197</v>
       </c>
       <c r="L18">
-        <v>0.44051581990702</v>
+        <v>0.347770181773285</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8010261247284518</v>
+        <v>0.7451093606012966</v>
       </c>
       <c r="O18">
-        <v>1.502820164462946</v>
+        <v>2.05633920624021</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.244346981247247</v>
+        <v>1.693414895796337</v>
       </c>
       <c r="C19">
-        <v>0.4708378621860163</v>
+        <v>0.1010683716123424</v>
       </c>
       <c r="D19">
-        <v>0.02647933738523878</v>
+        <v>0.08140894727460335</v>
       </c>
       <c r="E19">
-        <v>0.03848130801481275</v>
+        <v>0.08944403100186804</v>
       </c>
       <c r="F19">
-        <v>1.948650948830831</v>
+        <v>0.7041841386931793</v>
       </c>
       <c r="G19">
-        <v>0.0007807457679033236</v>
+        <v>0.0008014127177778099</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9737679281423226</v>
+        <v>1.337612519140748</v>
       </c>
       <c r="L19">
-        <v>0.4366809081292189</v>
+        <v>0.3448823320227348</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8046536346265043</v>
+        <v>0.7485449595195082</v>
       </c>
       <c r="O19">
-        <v>1.49281030820093</v>
+        <v>2.050327143699889</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.41900917552681</v>
+        <v>1.760186135158619</v>
       </c>
       <c r="C20">
-        <v>0.4891001628148501</v>
+        <v>0.1013680888849464</v>
       </c>
       <c r="D20">
-        <v>0.02574714180089321</v>
+        <v>0.08355314981433537</v>
       </c>
       <c r="E20">
-        <v>0.03911357613801414</v>
+        <v>0.09177232999891416</v>
       </c>
       <c r="F20">
-        <v>2.011964257452902</v>
+        <v>0.7186277930817013</v>
       </c>
       <c r="G20">
-        <v>0.0007779690108827794</v>
+        <v>0.0008000264292586181</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.014546239132812</v>
+        <v>1.390507128681946</v>
       </c>
       <c r="L20">
-        <v>0.4539976505387386</v>
+        <v>0.3579036728576739</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7884806898132126</v>
+        <v>0.7331744282232773</v>
       </c>
       <c r="O20">
-        <v>1.538161719341971</v>
+        <v>2.077693151852486</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.015159703873735</v>
+        <v>1.9858558705306</v>
       </c>
       <c r="C21">
-        <v>0.5511946043867511</v>
+        <v>0.1024011860475298</v>
       </c>
       <c r="D21">
-        <v>0.02334373312854798</v>
+        <v>0.09074860294754927</v>
       </c>
       <c r="E21">
-        <v>0.04133752436848503</v>
+        <v>0.09977211200572356</v>
       </c>
       <c r="F21">
-        <v>2.231890887679697</v>
+        <v>0.7689625066148267</v>
       </c>
       <c r="G21">
-        <v>0.0007687327519306027</v>
+        <v>0.0007954468964194421</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.153602849935695</v>
+        <v>1.568952645416914</v>
       </c>
       <c r="L21">
-        <v>0.5133040311186647</v>
+        <v>0.4021325046634701</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7369178722892116</v>
+        <v>0.6831473360371536</v>
       </c>
       <c r="O21">
-        <v>1.696290880814615</v>
+        <v>2.175311254043692</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.412729018101572</v>
+        <v>2.134460540824875</v>
       </c>
       <c r="C22">
-        <v>0.5924267336822027</v>
+        <v>0.1030962431208167</v>
       </c>
       <c r="D22">
-        <v>0.02181879927832275</v>
+        <v>0.09544625166526544</v>
       </c>
       <c r="E22">
-        <v>0.04287214690155849</v>
+        <v>0.1051422397731159</v>
       </c>
       <c r="F22">
-        <v>2.381653434220951</v>
+        <v>0.8033029883133906</v>
       </c>
       <c r="G22">
-        <v>0.0007627553413858553</v>
+        <v>0.0007925099830499485</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.246243233027101</v>
+        <v>1.686208446144065</v>
       </c>
       <c r="L22">
-        <v>0.5530166200071562</v>
+        <v>0.4314323998625582</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7054552816441628</v>
+        <v>0.6517063575473134</v>
       </c>
       <c r="O22">
-        <v>1.804446081586889</v>
+        <v>2.243625908873355</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.199742430961521</v>
+        <v>2.055036823006219</v>
       </c>
       <c r="C23">
-        <v>0.5703539760937701</v>
+        <v>0.10272343127086</v>
       </c>
       <c r="D23">
-        <v>0.0226282405493734</v>
+        <v>0.09293938274921487</v>
       </c>
       <c r="E23">
-        <v>0.04204519724102695</v>
+        <v>0.1022624706941393</v>
       </c>
       <c r="F23">
-        <v>2.301125890042954</v>
+        <v>0.7848362194087173</v>
       </c>
       <c r="G23">
-        <v>0.0007659409104134688</v>
+        <v>0.0007940724844654218</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.196622502892211</v>
+        <v>1.623563083980201</v>
       </c>
       <c r="L23">
-        <v>0.5317263370431249</v>
+        <v>0.4157560121445556</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7220313713729709</v>
+        <v>0.6683688579066782</v>
       </c>
       <c r="O23">
-        <v>1.746246225480633</v>
+        <v>2.206732765470122</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.409384967688084</v>
+        <v>1.756514695549782</v>
       </c>
       <c r="C24">
-        <v>0.4880947599739898</v>
+        <v>0.1013515327183043</v>
       </c>
       <c r="D24">
-        <v>0.0257871457016392</v>
+        <v>0.08343543725845848</v>
       </c>
       <c r="E24">
-        <v>0.03907849685925946</v>
+        <v>0.09164382932219794</v>
       </c>
       <c r="F24">
-        <v>2.008461878849346</v>
+        <v>0.7178280629275307</v>
       </c>
       <c r="G24">
-        <v>0.0007781211210276385</v>
+        <v>0.0008001022579091234</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.01229974700199</v>
+        <v>1.387599894740021</v>
       </c>
       <c r="L24">
-        <v>0.453042741884488</v>
+        <v>0.3571868919952692</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7893587886767435</v>
+        <v>0.7340125496439409</v>
       </c>
       <c r="O24">
-        <v>1.535650833338394</v>
+        <v>2.076169711474222</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.584692894127443</v>
+        <v>1.438499915339605</v>
       </c>
       <c r="C25">
-        <v>0.401524119736564</v>
+        <v>0.09995437548295882</v>
       </c>
       <c r="D25">
-        <v>0.02936933454199586</v>
+        <v>0.07315264907801833</v>
       </c>
       <c r="E25">
-        <v>0.03618377135359552</v>
+        <v>0.08073618919791059</v>
       </c>
       <c r="F25">
-        <v>1.714552254548323</v>
+        <v>0.6511289822312776</v>
       </c>
       <c r="G25">
-        <v>0.000791578256918497</v>
+        <v>0.000806861151504615</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.819578830116825</v>
+        <v>1.135219479169308</v>
       </c>
       <c r="L25">
-        <v>0.3715470895428297</v>
+        <v>0.2954680453842684</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8705436445303363</v>
+        <v>0.8098881321384006</v>
       </c>
       <c r="O25">
-        <v>1.325903012689636</v>
+        <v>1.952901010484794</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.206907427941331</v>
+        <v>1.027436391823699</v>
       </c>
       <c r="C2">
-        <v>0.09899393160898384</v>
+        <v>0.1449156849908277</v>
       </c>
       <c r="D2">
-        <v>0.06554289105928746</v>
+        <v>0.08166656888269586</v>
       </c>
       <c r="E2">
-        <v>0.07310882483902148</v>
+        <v>0.07387371086013061</v>
       </c>
       <c r="F2">
-        <v>0.6061738782151522</v>
+        <v>0.3997171007100704</v>
       </c>
       <c r="G2">
-        <v>0.0008120722898832298</v>
+        <v>0.2982638648179829</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0005552071701284689</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2780176143916364</v>
       </c>
       <c r="K2">
-        <v>0.9506198970991022</v>
+        <v>0.3117922233360844</v>
       </c>
       <c r="L2">
-        <v>0.2510297864113653</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8791670059852947</v>
       </c>
       <c r="N2">
-        <v>0.8698006256390682</v>
+        <v>0.2550517981838709</v>
       </c>
       <c r="O2">
-        <v>1.875363517470902</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.7793050505623818</v>
+      </c>
+      <c r="Q2">
+        <v>1.162516590066474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.051155895516445</v>
+        <v>0.8945981002265739</v>
       </c>
       <c r="C3">
-        <v>0.09838444202940622</v>
+        <v>0.1405619553505488</v>
       </c>
       <c r="D3">
-        <v>0.06035630326515218</v>
+        <v>0.07278827259284526</v>
       </c>
       <c r="E3">
-        <v>0.06816131226731414</v>
+        <v>0.0692065034780498</v>
       </c>
       <c r="F3">
-        <v>0.578003790292172</v>
+        <v>0.3822782348094194</v>
       </c>
       <c r="G3">
-        <v>0.0008157574499393417</v>
+        <v>0.2894976816063135</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.000921013078980959</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2781454619673127</v>
       </c>
       <c r="K3">
-        <v>0.8260005511558859</v>
+        <v>0.3127760541580678</v>
       </c>
       <c r="L3">
-        <v>0.2214268732976166</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7684964808297821</v>
       </c>
       <c r="N3">
-        <v>0.9127835227999013</v>
+        <v>0.2249287532144706</v>
       </c>
       <c r="O3">
-        <v>1.830202620899058</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.8051274226565326</v>
+      </c>
+      <c r="Q3">
+        <v>1.143925003554884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9559963266241596</v>
+        <v>0.8127129704089384</v>
       </c>
       <c r="C4">
-        <v>0.09803031689145669</v>
+        <v>0.1379048966111611</v>
       </c>
       <c r="D4">
-        <v>0.05715565066100226</v>
+        <v>0.06733551230190926</v>
       </c>
       <c r="E4">
-        <v>0.06522352685834321</v>
+        <v>0.06639011728787381</v>
       </c>
       <c r="F4">
-        <v>0.5617491351675667</v>
+        <v>0.3720272499589825</v>
       </c>
       <c r="G4">
-        <v>0.0008180981030309065</v>
+        <v>0.2844951655689485</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001328080058663694</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2784920456948825</v>
       </c>
       <c r="K4">
-        <v>0.7496389769032987</v>
+        <v>0.31366631577135</v>
       </c>
       <c r="L4">
-        <v>0.2034690895041678</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7004249581379725</v>
       </c>
       <c r="N4">
-        <v>0.9403042653658167</v>
+        <v>0.2066424633872543</v>
       </c>
       <c r="O4">
-        <v>1.805852247728836</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.821691806581633</v>
+      </c>
+      <c r="Q4">
+        <v>1.133868930153739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9173206820244957</v>
+        <v>0.7786015825417394</v>
       </c>
       <c r="C5">
-        <v>0.09789102518786663</v>
+        <v>0.1369408694735128</v>
       </c>
       <c r="D5">
-        <v>0.05584712019955163</v>
+        <v>0.06516025130950709</v>
       </c>
       <c r="E5">
-        <v>0.06405021044144732</v>
+        <v>0.0651981727632851</v>
       </c>
       <c r="F5">
-        <v>0.5553745361192028</v>
+        <v>0.3676894620929261</v>
       </c>
       <c r="G5">
-        <v>0.0008190718473360505</v>
+        <v>0.2822883632994504</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001609009128436423</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2785649523844427</v>
       </c>
       <c r="K5">
-        <v>0.7185487574423632</v>
+        <v>0.3138444284614188</v>
       </c>
       <c r="L5">
-        <v>0.1962013368432167</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6726690064793388</v>
       </c>
       <c r="N5">
-        <v>0.9517966521076957</v>
+        <v>0.1993064048949975</v>
       </c>
       <c r="O5">
-        <v>1.796741703707156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.8286647934123152</v>
+      </c>
+      <c r="Q5">
+        <v>1.129269056408987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9109043641637697</v>
+        <v>0.7721253332218794</v>
       </c>
       <c r="C6">
-        <v>0.09786819790875256</v>
+        <v>0.1369234943503201</v>
       </c>
       <c r="D6">
-        <v>0.05562957813515368</v>
+        <v>0.06485741793823507</v>
       </c>
       <c r="E6">
-        <v>0.0638567862504793</v>
+        <v>0.06493230717943277</v>
       </c>
       <c r="F6">
-        <v>0.5543307363840881</v>
+        <v>0.3666448421699187</v>
       </c>
       <c r="G6">
-        <v>0.0008192347480577225</v>
+        <v>0.2816097335388363</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001752511399272016</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2784170720160972</v>
       </c>
       <c r="K6">
-        <v>0.7133876074103824</v>
+        <v>0.3135670122687415</v>
       </c>
       <c r="L6">
-        <v>0.1949974286128082</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6680798243491211</v>
       </c>
       <c r="N6">
-        <v>0.9537215292182299</v>
+        <v>0.1981729128397944</v>
       </c>
       <c r="O6">
-        <v>1.795276920625469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.8298936639775505</v>
+      </c>
+      <c r="Q6">
+        <v>1.127507949798968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9554743384762219</v>
+        <v>0.8100415231437523</v>
       </c>
       <c r="C7">
-        <v>0.09802841808709672</v>
+        <v>0.1382829338167113</v>
       </c>
       <c r="D7">
-        <v>0.05713802077755048</v>
+        <v>0.06746633912179334</v>
       </c>
       <c r="E7">
-        <v>0.06520760818030169</v>
+        <v>0.06618624394060646</v>
       </c>
       <c r="F7">
-        <v>0.5616621720078285</v>
+        <v>0.3710644323062198</v>
       </c>
       <c r="G7">
-        <v>0.0008181111543469899</v>
+        <v>0.2835975344117898</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001573426248125287</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2780457326254009</v>
       </c>
       <c r="K7">
-        <v>0.7492195854840702</v>
+        <v>0.3128192640160457</v>
       </c>
       <c r="L7">
-        <v>0.203370876957095</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7001103404509479</v>
       </c>
       <c r="N7">
-        <v>0.9404581405819945</v>
+        <v>0.2067669444537756</v>
       </c>
       <c r="O7">
-        <v>1.805726138056627</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.8219611202474013</v>
+      </c>
+      <c r="Q7">
+        <v>1.131029539506386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.153096198981359</v>
+        <v>0.97874189851035</v>
       </c>
       <c r="C8">
-        <v>0.09877958229058592</v>
+        <v>0.1439398047972986</v>
       </c>
       <c r="D8">
-        <v>0.06375776589991489</v>
+        <v>0.07881973510156826</v>
       </c>
       <c r="E8">
-        <v>0.07138136809639306</v>
+        <v>0.07200451188780121</v>
       </c>
       <c r="F8">
-        <v>0.5962367581046024</v>
+        <v>0.3924099782083488</v>
       </c>
       <c r="G8">
-        <v>0.0008133269440676372</v>
+        <v>0.2940129290582334</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.000931245112033352</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2774165403458326</v>
       </c>
       <c r="K8">
-        <v>0.9076119159668394</v>
+        <v>0.3109520792454532</v>
       </c>
       <c r="L8">
-        <v>0.2407744025132246</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8411082483201255</v>
       </c>
       <c r="N8">
-        <v>0.8843828194361203</v>
+        <v>0.2449164096806129</v>
       </c>
       <c r="O8">
-        <v>1.859067891545976</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.7883387567005258</v>
+      </c>
+      <c r="Q8">
+        <v>1.152151805416338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.545170512615726</v>
+        <v>1.311144217667305</v>
       </c>
       <c r="C9">
-        <v>0.1004142316816115</v>
+        <v>0.1544833215259445</v>
       </c>
       <c r="D9">
-        <v>0.07662167296799538</v>
+        <v>0.1008074217894972</v>
       </c>
       <c r="E9">
-        <v>0.08434348338553121</v>
+        <v>0.08416810478350811</v>
       </c>
       <c r="F9">
-        <v>0.6729100064285163</v>
+        <v>0.439735371655523</v>
       </c>
       <c r="G9">
-        <v>0.0008045489591592843</v>
+        <v>0.3191941463819958</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0008470620757563552</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2791847696548331</v>
       </c>
       <c r="K9">
-        <v>1.220004396608715</v>
+        <v>0.3111650038397116</v>
       </c>
       <c r="L9">
-        <v>0.3160861483491715</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.116759441734587</v>
       </c>
       <c r="N9">
-        <v>0.783680778374384</v>
+        <v>0.3211638784190853</v>
       </c>
       <c r="O9">
-        <v>1.992249584775408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.7278219248403879</v>
+      </c>
+      <c r="Q9">
+        <v>1.209884012499856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.837183501637156</v>
+        <v>1.552953758388156</v>
       </c>
       <c r="C10">
-        <v>0.1017172486013749</v>
+        <v>0.1626067049315409</v>
       </c>
       <c r="D10">
-        <v>0.08601691622132535</v>
+        <v>0.1170926051802041</v>
       </c>
       <c r="E10">
-        <v>0.09447972554620421</v>
+        <v>0.09330156589222938</v>
       </c>
       <c r="F10">
-        <v>0.7355445814823867</v>
+        <v>0.476734095641504</v>
       </c>
       <c r="G10">
-        <v>0.0007984463401322587</v>
+        <v>0.3394998661993611</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001974290547917867</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2817295847043866</v>
       </c>
       <c r="K10">
-        <v>1.451446524608173</v>
+        <v>0.3124835487969335</v>
       </c>
       <c r="L10">
-        <v>0.3729569308391802</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.319182801685486</v>
       </c>
       <c r="N10">
-        <v>0.7157808240994621</v>
+        <v>0.3786762138148987</v>
       </c>
       <c r="O10">
-        <v>2.110131834009195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.6873199131168199</v>
+      </c>
+      <c r="Q10">
+        <v>1.258699067465244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.971170424880455</v>
+        <v>1.658975791513171</v>
       </c>
       <c r="C11">
-        <v>0.1023330939811444</v>
+        <v>0.1670604054501794</v>
       </c>
       <c r="D11">
-        <v>0.09028267168295656</v>
+        <v>0.1247947029140732</v>
       </c>
       <c r="E11">
-        <v>0.09924568236041154</v>
+        <v>0.09721712509498559</v>
       </c>
       <c r="F11">
-        <v>0.765618817806498</v>
+        <v>0.4927452946526287</v>
       </c>
       <c r="G11">
-        <v>0.0007957403283639633</v>
+        <v>0.3478763803294527</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.003119898730997051</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.282516990106771</v>
       </c>
       <c r="K11">
-        <v>1.557354740288929</v>
+        <v>0.3120975455216382</v>
       </c>
       <c r="L11">
-        <v>0.3992443714875122</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.411411277869206</v>
       </c>
       <c r="N11">
-        <v>0.6863169696826326</v>
+        <v>0.4055696153857156</v>
       </c>
       <c r="O11">
-        <v>2.168728690488791</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.6703030597709301</v>
+      </c>
+      <c r="Q11">
+        <v>1.278297330462436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.022097763709667</v>
+        <v>1.701084551505005</v>
       </c>
       <c r="C12">
-        <v>0.102569702407969</v>
+        <v>0.1683840682365911</v>
       </c>
       <c r="D12">
-        <v>0.09189713767246133</v>
+        <v>0.1275700453302591</v>
       </c>
       <c r="E12">
-        <v>0.1010746101576636</v>
+        <v>0.09887616444614267</v>
       </c>
       <c r="F12">
-        <v>0.7772533439490559</v>
+        <v>0.4996959965666221</v>
       </c>
       <c r="G12">
-        <v>0.0007947252779110792</v>
+        <v>0.351884004918702</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.003400006944375811</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2832487731350994</v>
       </c>
       <c r="K12">
-        <v>1.59756668296049</v>
+        <v>0.3127328661961606</v>
       </c>
       <c r="L12">
-        <v>0.4092657955831669</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.446301204004754</v>
       </c>
       <c r="N12">
-        <v>0.6753740478856081</v>
+        <v>0.4156145580377171</v>
       </c>
       <c r="O12">
-        <v>2.191687906930326</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.663733347745076</v>
+      </c>
+      <c r="Q12">
+        <v>1.288397484893579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.011120822620967</v>
+        <v>1.69241813317646</v>
       </c>
       <c r="C13">
-        <v>0.1025185919112488</v>
+        <v>0.1680229087414986</v>
       </c>
       <c r="D13">
-        <v>0.09154946790719265</v>
+        <v>0.1269428874896619</v>
       </c>
       <c r="E13">
-        <v>0.1006796118249369</v>
+        <v>0.0985516278569456</v>
       </c>
       <c r="F13">
-        <v>0.7747363862304724</v>
+        <v>0.4983525542403342</v>
       </c>
       <c r="G13">
-        <v>0.0007949434646839496</v>
+        <v>0.3511679227677007</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.003296108008127518</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2831654003255721</v>
       </c>
       <c r="K13">
-        <v>1.588901286622956</v>
+        <v>0.3127389037759549</v>
       </c>
       <c r="L13">
-        <v>0.4071044083022031</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.438776588507153</v>
       </c>
       <c r="N13">
-        <v>0.6777211065306226</v>
+        <v>0.4134091020712702</v>
       </c>
       <c r="O13">
-        <v>2.186708073985358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.6650876515594284</v>
+      </c>
+      <c r="Q13">
+        <v>1.286689480481897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.975356307072389</v>
+        <v>1.662610964403456</v>
       </c>
       <c r="C14">
-        <v>0.1023524912438987</v>
+        <v>0.1671369923516508</v>
       </c>
       <c r="D14">
-        <v>0.09041551071156562</v>
+        <v>0.1250105308540981</v>
       </c>
       <c r="E14">
-        <v>0.09939565384501137</v>
+        <v>0.09736751724251391</v>
       </c>
       <c r="F14">
-        <v>0.7665709544230026</v>
+        <v>0.4933822316723138</v>
       </c>
       <c r="G14">
-        <v>0.0007956566284951278</v>
+        <v>0.3482684558019855</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.00312406678374888</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2826086807912986</v>
       </c>
       <c r="K14">
-        <v>1.560660758412411</v>
+        <v>0.3122104501055496</v>
       </c>
       <c r="L14">
-        <v>0.4000674565083386</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.414277230151072</v>
       </c>
       <c r="N14">
-        <v>0.6854123347039192</v>
+        <v>0.4063780734396261</v>
       </c>
       <c r="O14">
-        <v>2.170601801803571</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.6697368500083876</v>
+      </c>
+      <c r="Q14">
+        <v>1.279326469153972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.953474921675223</v>
+        <v>1.643560938146635</v>
       </c>
       <c r="C15">
-        <v>0.102251195248158</v>
+        <v>0.1667445445278588</v>
       </c>
       <c r="D15">
-        <v>0.0897208232669513</v>
+        <v>0.1238849618580389</v>
       </c>
       <c r="E15">
-        <v>0.09861239733361415</v>
+        <v>0.09657822871409749</v>
       </c>
       <c r="F15">
-        <v>0.7616020117101812</v>
+        <v>0.4900399007145069</v>
       </c>
       <c r="G15">
-        <v>0.0007960947066326439</v>
+        <v>0.3462066315093608</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003110613371465121</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2821236601168664</v>
       </c>
       <c r="K15">
-        <v>1.543377055556732</v>
+        <v>0.311607881625978</v>
       </c>
       <c r="L15">
-        <v>0.3957660548215927</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.399291971371696</v>
       </c>
       <c r="N15">
-        <v>0.6901516513509351</v>
+        <v>0.4021567079441439</v>
       </c>
       <c r="O15">
-        <v>2.160838198095064</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.6727081926347473</v>
+      </c>
+      <c r="Q15">
+        <v>1.273908663431314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.828452287914331</v>
+        <v>1.53938648704019</v>
       </c>
       <c r="C16">
-        <v>0.1016774730400556</v>
+        <v>0.1635586929523427</v>
       </c>
       <c r="D16">
-        <v>0.08573799902489299</v>
+        <v>0.1170732861327508</v>
       </c>
       <c r="E16">
-        <v>0.09417153497625463</v>
+        <v>0.09249577536794718</v>
       </c>
       <c r="F16">
-        <v>0.7336125487473311</v>
+        <v>0.4730769687817826</v>
       </c>
       <c r="G16">
-        <v>0.0007986245593109351</v>
+        <v>0.3364577302905047</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002583264834991716</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2804112572741886</v>
       </c>
       <c r="K16">
-        <v>1.444539161634083</v>
+        <v>0.3100967491608273</v>
       </c>
       <c r="L16">
-        <v>0.3712479586253608</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.313320922796493</v>
       </c>
       <c r="N16">
-        <v>0.7177358210283398</v>
+        <v>0.3775812467883668</v>
       </c>
       <c r="O16">
-        <v>2.106407045977932</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.6893130185191403</v>
+      </c>
+      <c r="Q16">
+        <v>1.249475474077769</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.752065871131208</v>
+        <v>1.47545769957415</v>
       </c>
       <c r="C17">
-        <v>0.1013314826072929</v>
+        <v>0.1616123763874953</v>
       </c>
       <c r="D17">
-        <v>0.0832927715378986</v>
+        <v>0.1128978282040123</v>
       </c>
       <c r="E17">
-        <v>0.09148819386901508</v>
+        <v>0.09001284153013955</v>
       </c>
       <c r="F17">
-        <v>0.716859854166799</v>
+        <v>0.4628558903977407</v>
       </c>
       <c r="G17">
-        <v>0.0008001942032276814</v>
+        <v>0.3306331316064828</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002336281788916317</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.279456241805903</v>
       </c>
       <c r="K17">
-        <v>1.384076903782613</v>
+        <v>0.3092779009229893</v>
       </c>
       <c r="L17">
-        <v>0.3563184644145139</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.260598210897172</v>
       </c>
       <c r="N17">
-        <v>0.7350292177605926</v>
+        <v>0.3625982987439329</v>
       </c>
       <c r="O17">
-        <v>2.074326587302551</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.6997233969501053</v>
+      </c>
+      <c r="Q17">
+        <v>1.235015299135782</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.708237002856976</v>
+        <v>1.440678860736313</v>
       </c>
       <c r="C18">
-        <v>0.1011346466931116</v>
+        <v>0.1601173440082491</v>
       </c>
       <c r="D18">
-        <v>0.08188555190304925</v>
+        <v>0.1103510447810976</v>
       </c>
       <c r="E18">
-        <v>0.08995926985526026</v>
+        <v>0.08875890251753304</v>
       </c>
       <c r="F18">
-        <v>0.707371813021993</v>
+        <v>0.4578364683698624</v>
       </c>
       <c r="G18">
-        <v>0.0008011036458499338</v>
+        <v>0.3280960949919134</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001977047381936714</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2793270306223832</v>
       </c>
       <c r="K18">
-        <v>1.349358256329197</v>
+        <v>0.3095770747166036</v>
       </c>
       <c r="L18">
-        <v>0.347770181773285</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.230227698934755</v>
       </c>
       <c r="N18">
-        <v>0.7451093606012966</v>
+        <v>0.3538147657456676</v>
       </c>
       <c r="O18">
-        <v>2.05633920624021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.7055364050669155</v>
+      </c>
+      <c r="Q18">
+        <v>1.229301294214181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.693414895796337</v>
+        <v>1.427358006444734</v>
       </c>
       <c r="C19">
-        <v>0.1010683716123424</v>
+        <v>0.159902994956731</v>
       </c>
       <c r="D19">
-        <v>0.08140894727460335</v>
+        <v>0.1096016490644374</v>
       </c>
       <c r="E19">
-        <v>0.08944403100186804</v>
+        <v>0.08820715335966867</v>
       </c>
       <c r="F19">
-        <v>0.7041841386931793</v>
+        <v>0.4555358155051508</v>
       </c>
       <c r="G19">
-        <v>0.0008014127177778099</v>
+        <v>0.3266619060247962</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.00204504967475394</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2789914835113336</v>
       </c>
       <c r="K19">
-        <v>1.337612519140748</v>
+        <v>0.3091206443872494</v>
       </c>
       <c r="L19">
-        <v>0.3448823320227348</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.219984187767011</v>
       </c>
       <c r="N19">
-        <v>0.7485449595195082</v>
+        <v>0.3509993239513847</v>
       </c>
       <c r="O19">
-        <v>2.050327143699889</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.7077153819066631</v>
+      </c>
+      <c r="Q19">
+        <v>1.225535804103941</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.760186135158619</v>
+        <v>1.482421147579998</v>
       </c>
       <c r="C20">
-        <v>0.1013680888849464</v>
+        <v>0.1617894783162015</v>
       </c>
       <c r="D20">
-        <v>0.08355314981433537</v>
+        <v>0.1133307156312071</v>
       </c>
       <c r="E20">
-        <v>0.09177232999891416</v>
+        <v>0.09028943053911576</v>
       </c>
       <c r="F20">
-        <v>0.7186277930817013</v>
+        <v>0.4639993634261543</v>
       </c>
       <c r="G20">
-        <v>0.0008000264292586181</v>
+        <v>0.3313068339897427</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002340344200239208</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2795845939348851</v>
       </c>
       <c r="K20">
-        <v>1.390507128681946</v>
+        <v>0.3094183774735555</v>
       </c>
       <c r="L20">
-        <v>0.3579036728576739</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.266206176674132</v>
       </c>
       <c r="N20">
-        <v>0.7331744282232773</v>
+        <v>0.3641742622345134</v>
       </c>
       <c r="O20">
-        <v>2.077693151852486</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.6985864372808273</v>
+      </c>
+      <c r="Q20">
+        <v>1.236724364865267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.9858558705306</v>
+        <v>1.669117574469169</v>
       </c>
       <c r="C21">
-        <v>0.1024011860475298</v>
+        <v>0.1678227216787107</v>
       </c>
       <c r="D21">
-        <v>0.09074860294754927</v>
+        <v>0.1257421787988022</v>
       </c>
       <c r="E21">
-        <v>0.09977211200572356</v>
+        <v>0.09752849823879117</v>
       </c>
       <c r="F21">
-        <v>0.7689625066148267</v>
+        <v>0.4939526964222978</v>
       </c>
       <c r="G21">
-        <v>0.0007954468964194421</v>
+        <v>0.3482718349248159</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.003419809177828803</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2823413138479651</v>
       </c>
       <c r="K21">
-        <v>1.568952645416914</v>
+        <v>0.3115490940166126</v>
       </c>
       <c r="L21">
-        <v>0.4021325046634701</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.421527589037282</v>
       </c>
       <c r="N21">
-        <v>0.6831473360371536</v>
+        <v>0.4086631539709487</v>
       </c>
       <c r="O21">
-        <v>2.175311254043692</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.6686736177544113</v>
+      </c>
+      <c r="Q21">
+        <v>1.278788290108935</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.134460540824875</v>
+        <v>1.7939407064882</v>
       </c>
       <c r="C22">
-        <v>0.1030962431208167</v>
+        <v>0.1712550797104484</v>
       </c>
       <c r="D22">
-        <v>0.09544625166526544</v>
+        <v>0.1336586515723468</v>
       </c>
       <c r="E22">
-        <v>0.1051422397731159</v>
+        <v>0.1025701442821436</v>
       </c>
       <c r="F22">
-        <v>0.8033029883133906</v>
+        <v>0.5152888871296852</v>
       </c>
       <c r="G22">
-        <v>0.0007925099830499485</v>
+        <v>0.3609683730654183</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.004067859825153342</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2850112123158937</v>
       </c>
       <c r="K22">
-        <v>1.686208446144065</v>
+        <v>0.3143427900564291</v>
       </c>
       <c r="L22">
-        <v>0.4314323998625582</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.523052579539723</v>
       </c>
       <c r="N22">
-        <v>0.6517063575473134</v>
+        <v>0.4377834983778968</v>
       </c>
       <c r="O22">
-        <v>2.243625908873355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.6494887945990264</v>
+      </c>
+      <c r="Q22">
+        <v>1.311502523355614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.055036823006219</v>
+        <v>1.730037550271106</v>
       </c>
       <c r="C23">
-        <v>0.10272343127086</v>
+        <v>0.1689080136363472</v>
       </c>
       <c r="D23">
-        <v>0.09293938274921487</v>
+        <v>0.129234081441453</v>
       </c>
       <c r="E23">
-        <v>0.1022624706941393</v>
+        <v>0.100097300510658</v>
       </c>
       <c r="F23">
-        <v>0.7848362194087173</v>
+        <v>0.5049100458019566</v>
       </c>
       <c r="G23">
-        <v>0.0007940724844654218</v>
+        <v>0.3551611102721637</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003418129426473016</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2840734197826009</v>
       </c>
       <c r="K23">
-        <v>1.623563083980201</v>
+        <v>0.3138001297906392</v>
       </c>
       <c r="L23">
-        <v>0.4157560121445556</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.468791495323643</v>
       </c>
       <c r="N23">
-        <v>0.6683688579066782</v>
+        <v>0.4219430580806716</v>
       </c>
       <c r="O23">
-        <v>2.206732765470122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.6592862464076781</v>
+      </c>
+      <c r="Q23">
+        <v>1.297117936723311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.756514695549782</v>
+        <v>1.483514396153737</v>
       </c>
       <c r="C24">
-        <v>0.1013515327183043</v>
+        <v>0.1609119362923082</v>
       </c>
       <c r="D24">
-        <v>0.08343543725845848</v>
+        <v>0.1128254979439731</v>
       </c>
       <c r="E24">
-        <v>0.09164382932219794</v>
+        <v>0.0905172220622994</v>
       </c>
       <c r="F24">
-        <v>0.7178280629275307</v>
+        <v>0.4651630570010639</v>
       </c>
       <c r="G24">
-        <v>0.0008001022579091234</v>
+        <v>0.3326070488289332</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001862172650729299</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2803431444801703</v>
       </c>
       <c r="K24">
-        <v>1.387599894740021</v>
+        <v>0.310904398974106</v>
       </c>
       <c r="L24">
-        <v>0.3571868919952692</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.263564862885147</v>
       </c>
       <c r="N24">
-        <v>0.7340125496439409</v>
+        <v>0.3630418558231838</v>
       </c>
       <c r="O24">
-        <v>2.076169711474222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.6985560707250897</v>
+      </c>
+      <c r="Q24">
+        <v>1.241064495068926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.438499915339605</v>
+        <v>1.217372905564901</v>
       </c>
       <c r="C25">
-        <v>0.09995437548295882</v>
+        <v>0.152356398099208</v>
       </c>
       <c r="D25">
-        <v>0.07315264907801833</v>
+        <v>0.09515095746731106</v>
       </c>
       <c r="E25">
-        <v>0.08073618919791059</v>
+        <v>0.08048717953087703</v>
       </c>
       <c r="F25">
-        <v>0.6511289822312776</v>
+        <v>0.4248529859979158</v>
       </c>
       <c r="G25">
-        <v>0.000806861151504615</v>
+        <v>0.3104471576207715</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001100924466151731</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2776599377172886</v>
       </c>
       <c r="K25">
-        <v>1.135219479169308</v>
+        <v>0.309323862093656</v>
       </c>
       <c r="L25">
-        <v>0.2954680453842684</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.042340403890421</v>
       </c>
       <c r="N25">
-        <v>0.8098881321384006</v>
+        <v>0.3007208791645866</v>
       </c>
       <c r="O25">
-        <v>1.952901010484794</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.7440075013425691</v>
+      </c>
+      <c r="Q25">
+        <v>1.187978238403559</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.027436391823699</v>
+        <v>0.9916123166396176</v>
       </c>
       <c r="C2">
-        <v>0.1449156849908277</v>
+        <v>0.137943316251075</v>
       </c>
       <c r="D2">
-        <v>0.08166656888269586</v>
+        <v>0.08398643216426649</v>
       </c>
       <c r="E2">
-        <v>0.07387371086013061</v>
+        <v>0.06912538431389947</v>
       </c>
       <c r="F2">
-        <v>0.3997171007100704</v>
+        <v>0.380591088901987</v>
       </c>
       <c r="G2">
-        <v>0.2982638648179829</v>
+        <v>0.2620437989355082</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0005552071701284689</v>
+        <v>0.0005561563424469895</v>
       </c>
       <c r="J2">
-        <v>0.2780176143916364</v>
+        <v>0.3006340914603669</v>
       </c>
       <c r="K2">
-        <v>0.3117922233360844</v>
+        <v>0.2878027928708882</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1517196399381397</v>
       </c>
       <c r="M2">
-        <v>0.8791670059852947</v>
+        <v>0.07278047945993471</v>
       </c>
       <c r="N2">
-        <v>0.2550517981838709</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.8813416029822463</v>
       </c>
       <c r="P2">
-        <v>0.7793050505623818</v>
+        <v>0.2597173594425755</v>
       </c>
       <c r="Q2">
-        <v>1.162516590066474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.7694351059283555</v>
+      </c>
+      <c r="S2">
+        <v>1.099456112067685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8945981002265739</v>
+        <v>0.866870987523896</v>
       </c>
       <c r="C3">
-        <v>0.1405619553505488</v>
+        <v>0.1310141893361916</v>
       </c>
       <c r="D3">
-        <v>0.07278827259284526</v>
+        <v>0.07439547316656814</v>
       </c>
       <c r="E3">
-        <v>0.0692065034780498</v>
+        <v>0.06496267445569615</v>
       </c>
       <c r="F3">
-        <v>0.3822782348094194</v>
+        <v>0.3653890932402319</v>
       </c>
       <c r="G3">
-        <v>0.2894976816063135</v>
+        <v>0.2558548593358267</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.000921013078980959</v>
+        <v>0.0007305755913860068</v>
       </c>
       <c r="J3">
-        <v>0.2781454619673127</v>
+        <v>0.2994975839879288</v>
       </c>
       <c r="K3">
-        <v>0.3127760541580678</v>
+        <v>0.2901262021247497</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1563520787963029</v>
       </c>
       <c r="M3">
-        <v>0.7684964808297821</v>
+        <v>0.07118977047510811</v>
       </c>
       <c r="N3">
-        <v>0.2249287532144706</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.7707541351806952</v>
       </c>
       <c r="P3">
-        <v>0.8051274226565326</v>
+        <v>0.228852997533906</v>
       </c>
       <c r="Q3">
-        <v>1.143925003554884</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.7915493702500633</v>
+      </c>
+      <c r="S3">
+        <v>1.086568690786123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8127129704089384</v>
+        <v>0.7897735567859172</v>
       </c>
       <c r="C4">
-        <v>0.1379048966111611</v>
+        <v>0.1268221146941215</v>
       </c>
       <c r="D4">
-        <v>0.06733551230190926</v>
+        <v>0.06851607555871908</v>
       </c>
       <c r="E4">
-        <v>0.06639011728787381</v>
+        <v>0.06243909325962704</v>
       </c>
       <c r="F4">
-        <v>0.3720272499589825</v>
+        <v>0.3564175955302389</v>
       </c>
       <c r="G4">
-        <v>0.2844951655689485</v>
+        <v>0.2524297287643904</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001328080058663694</v>
+        <v>0.0009916103189375747</v>
       </c>
       <c r="J4">
-        <v>0.2784920456948825</v>
+        <v>0.2989111836534661</v>
       </c>
       <c r="K4">
-        <v>0.31366631577135</v>
+        <v>0.2917551919514878</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1593026688795725</v>
       </c>
       <c r="M4">
-        <v>0.7004249581379725</v>
+        <v>0.07076461416478708</v>
       </c>
       <c r="N4">
-        <v>0.2066424633872543</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7027110410101187</v>
       </c>
       <c r="P4">
-        <v>0.821691806581633</v>
+        <v>0.2101223975404451</v>
       </c>
       <c r="Q4">
-        <v>1.133868930153739</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8058431336383975</v>
+      </c>
+      <c r="S4">
+        <v>1.079720420477159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7786015825417394</v>
+        <v>0.7575721362084664</v>
       </c>
       <c r="C5">
-        <v>0.1369408694735128</v>
+        <v>0.1252677394445385</v>
       </c>
       <c r="D5">
-        <v>0.06516025130950709</v>
+        <v>0.06617097246258652</v>
       </c>
       <c r="E5">
-        <v>0.0651981727632851</v>
+        <v>0.06136315125502634</v>
       </c>
       <c r="F5">
-        <v>0.3676894620929261</v>
+        <v>0.3525813305951218</v>
       </c>
       <c r="G5">
-        <v>0.2822883632994504</v>
+        <v>0.2508733595840482</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001609009128436423</v>
+        <v>0.00121841710523185</v>
       </c>
       <c r="J5">
-        <v>0.2785649523844427</v>
+        <v>0.2985609484415903</v>
       </c>
       <c r="K5">
-        <v>0.3138444284614188</v>
+        <v>0.2922242830479007</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1604029743114275</v>
       </c>
       <c r="M5">
-        <v>0.6726690064793388</v>
+        <v>0.07067284934315232</v>
       </c>
       <c r="N5">
-        <v>0.1993064048949975</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.6749625310837644</v>
       </c>
       <c r="P5">
-        <v>0.8286647934123152</v>
+        <v>0.2026092952643381</v>
       </c>
       <c r="Q5">
-        <v>1.129269056408987</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8119115883969279</v>
+      </c>
+      <c r="S5">
+        <v>1.076371576634926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7721253332218794</v>
+        <v>0.751415299482403</v>
       </c>
       <c r="C6">
-        <v>0.1369234943503201</v>
+        <v>0.1251825040422645</v>
       </c>
       <c r="D6">
-        <v>0.06485741793823507</v>
+        <v>0.0658416842487668</v>
       </c>
       <c r="E6">
-        <v>0.06493230717943277</v>
+        <v>0.06111734594001561</v>
       </c>
       <c r="F6">
-        <v>0.3666448421699187</v>
+        <v>0.3516224641621122</v>
       </c>
       <c r="G6">
-        <v>0.2816097335388363</v>
+        <v>0.2503140784129343</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001752511399272016</v>
+        <v>0.001368989244625141</v>
       </c>
       <c r="J6">
-        <v>0.2784170720160972</v>
+        <v>0.298334919596698</v>
       </c>
       <c r="K6">
-        <v>0.3135670122687415</v>
+        <v>0.2920070414290095</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1604306458019131</v>
       </c>
       <c r="M6">
-        <v>0.6680798243491211</v>
+        <v>0.07059652020853591</v>
       </c>
       <c r="N6">
-        <v>0.1981729128397944</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.6703751876420512</v>
       </c>
       <c r="P6">
-        <v>0.8298936639775505</v>
+        <v>0.2014479494776253</v>
       </c>
       <c r="Q6">
-        <v>1.127507949798968</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8130138888026899</v>
+      </c>
+      <c r="S6">
+        <v>1.07483373723268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8100415231437523</v>
+        <v>0.7867593806233515</v>
       </c>
       <c r="C7">
-        <v>0.1382829338167113</v>
+        <v>0.1271580206731926</v>
       </c>
       <c r="D7">
-        <v>0.06746633912179334</v>
+        <v>0.06875647224235593</v>
       </c>
       <c r="E7">
-        <v>0.06618624394060646</v>
+        <v>0.06227436101064043</v>
       </c>
       <c r="F7">
-        <v>0.3710644323062198</v>
+        <v>0.3549073290705138</v>
       </c>
       <c r="G7">
-        <v>0.2835975344117898</v>
+        <v>0.2538353170004513</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.001573426248125287</v>
+        <v>0.001280469688182961</v>
       </c>
       <c r="J7">
-        <v>0.2780457326254009</v>
+        <v>0.2951907837515577</v>
       </c>
       <c r="K7">
-        <v>0.3128192640160457</v>
+        <v>0.2906638014082574</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1587560300407489</v>
       </c>
       <c r="M7">
-        <v>0.7001103404509479</v>
+        <v>0.07049162785992458</v>
       </c>
       <c r="N7">
-        <v>0.2067669444537756</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7017613781044929</v>
       </c>
       <c r="P7">
-        <v>0.8219611202474013</v>
+        <v>0.2102012568285971</v>
       </c>
       <c r="Q7">
-        <v>1.131029539506386</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8062905944455991</v>
+      </c>
+      <c r="S7">
+        <v>1.075245130146527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.97874189851035</v>
+        <v>0.9444896081774914</v>
       </c>
       <c r="C8">
-        <v>0.1439398047972986</v>
+        <v>0.135795858984487</v>
       </c>
       <c r="D8">
-        <v>0.07881973510156826</v>
+        <v>0.08126052657729588</v>
       </c>
       <c r="E8">
-        <v>0.07200451188780121</v>
+        <v>0.06755441354277991</v>
       </c>
       <c r="F8">
-        <v>0.3924099782083488</v>
+        <v>0.3722182645583345</v>
       </c>
       <c r="G8">
-        <v>0.2940129290582334</v>
+        <v>0.2663117911006978</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.000931245112033352</v>
+        <v>0.0009280362397623421</v>
       </c>
       <c r="J8">
-        <v>0.2774165403458326</v>
+        <v>0.2890604641994727</v>
       </c>
       <c r="K8">
-        <v>0.3109520792454532</v>
+        <v>0.2865657170149198</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1523680956347739</v>
       </c>
       <c r="M8">
-        <v>0.8411082483201255</v>
+        <v>0.07152960133043429</v>
       </c>
       <c r="N8">
-        <v>0.2449164096806129</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8411807979497326</v>
       </c>
       <c r="P8">
-        <v>0.7883387567005258</v>
+        <v>0.2491702613979214</v>
       </c>
       <c r="Q8">
-        <v>1.152151805416338</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.7777713691833448</v>
+      </c>
+      <c r="S8">
+        <v>1.085564327654268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.311144217667305</v>
+        <v>1.255210704995136</v>
       </c>
       <c r="C9">
-        <v>0.1544833215259445</v>
+        <v>0.1528205696135814</v>
       </c>
       <c r="D9">
-        <v>0.1008074217894972</v>
+        <v>0.1051923802779413</v>
       </c>
       <c r="E9">
-        <v>0.08416810478350811</v>
+        <v>0.07839018817248444</v>
       </c>
       <c r="F9">
-        <v>0.439735371655523</v>
+        <v>0.4128780322400232</v>
       </c>
       <c r="G9">
-        <v>0.3191941463819958</v>
+        <v>0.2871182905029102</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0008470620757563552</v>
+        <v>0.001092172386684354</v>
       </c>
       <c r="J9">
-        <v>0.2791847696548331</v>
+        <v>0.2902111975905086</v>
       </c>
       <c r="K9">
-        <v>0.3111650038397116</v>
+        <v>0.2826713589911414</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1418726547291271</v>
       </c>
       <c r="M9">
-        <v>1.116759441734587</v>
+        <v>0.07866744975835616</v>
       </c>
       <c r="N9">
-        <v>0.3211638784190853</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.115826573800462</v>
       </c>
       <c r="P9">
-        <v>0.7278219248403879</v>
+        <v>0.3272656620032848</v>
       </c>
       <c r="Q9">
-        <v>1.209884012499856</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.7267089038208958</v>
+      </c>
+      <c r="S9">
+        <v>1.125748202646932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.552953758388156</v>
+        <v>1.477765537370374</v>
       </c>
       <c r="C10">
-        <v>0.1626067049315409</v>
+        <v>0.1652876188311296</v>
       </c>
       <c r="D10">
-        <v>0.1170926051802041</v>
+        <v>0.1236284668123062</v>
       </c>
       <c r="E10">
-        <v>0.09330156589222938</v>
+        <v>0.08666705208256786</v>
       </c>
       <c r="F10">
-        <v>0.476734095641504</v>
+        <v>0.441161722888495</v>
       </c>
       <c r="G10">
-        <v>0.3394998661993611</v>
+        <v>0.3180279854397483</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.001974290547917867</v>
+        <v>0.002241128591881747</v>
       </c>
       <c r="J10">
-        <v>0.2817295847043866</v>
+        <v>0.2741934008076257</v>
       </c>
       <c r="K10">
-        <v>0.3124835487969335</v>
+        <v>0.2789588794544571</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1339999360539554</v>
       </c>
       <c r="M10">
-        <v>1.319182801685486</v>
+        <v>0.08584894526273956</v>
       </c>
       <c r="N10">
-        <v>0.3786762138148987</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.313451191132998</v>
       </c>
       <c r="P10">
-        <v>0.6873199131168199</v>
+        <v>0.3858772392489271</v>
       </c>
       <c r="Q10">
-        <v>1.258699067465244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.694355292018269</v>
+      </c>
+      <c r="S10">
+        <v>1.150245643076758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.658975791513171</v>
+        <v>1.570714559563328</v>
       </c>
       <c r="C11">
-        <v>0.1670604054501794</v>
+        <v>0.1706673605157363</v>
       </c>
       <c r="D11">
-        <v>0.1247947029140732</v>
+        <v>0.1335299810180999</v>
       </c>
       <c r="E11">
-        <v>0.09721712509498559</v>
+        <v>0.09055500862341859</v>
       </c>
       <c r="F11">
-        <v>0.4927452946526287</v>
+        <v>0.4473022520443664</v>
       </c>
       <c r="G11">
-        <v>0.3478763803294527</v>
+        <v>0.3570508654875795</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.003119898730997051</v>
+        <v>0.003410848433368585</v>
       </c>
       <c r="J11">
-        <v>0.282516990106771</v>
+        <v>0.2405415492955001</v>
       </c>
       <c r="K11">
-        <v>0.3120975455216382</v>
+        <v>0.2735171143849726</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1292236076709763</v>
       </c>
       <c r="M11">
-        <v>1.411411277869206</v>
+        <v>0.08798497211964573</v>
       </c>
       <c r="N11">
-        <v>0.4055696153857156</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.396562244696895</v>
       </c>
       <c r="P11">
-        <v>0.6703030597709301</v>
+        <v>0.4127518395155221</v>
       </c>
       <c r="Q11">
-        <v>1.278297330462436</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.6834430089412251</v>
+      </c>
+      <c r="S11">
+        <v>1.141334966936284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.701084551505005</v>
+        <v>1.607254329535095</v>
       </c>
       <c r="C12">
-        <v>0.1683840682365911</v>
+        <v>0.1720897581042848</v>
       </c>
       <c r="D12">
-        <v>0.1275700453302591</v>
+        <v>0.1372944577347397</v>
       </c>
       <c r="E12">
-        <v>0.09887616444614267</v>
+        <v>0.09224608816274582</v>
       </c>
       <c r="F12">
-        <v>0.4996959965666221</v>
+        <v>0.4497172533484459</v>
       </c>
       <c r="G12">
-        <v>0.351884004918702</v>
+        <v>0.3766243447289384</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.003400006944375811</v>
+        <v>0.003645656536526154</v>
       </c>
       <c r="J12">
-        <v>0.2832487731350994</v>
+        <v>0.2267529186732133</v>
       </c>
       <c r="K12">
-        <v>0.3127328661961606</v>
+        <v>0.271803946267319</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1275743907250089</v>
       </c>
       <c r="M12">
-        <v>1.446301204004754</v>
+        <v>0.08897392526183623</v>
       </c>
       <c r="N12">
-        <v>0.4156145580377171</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.427093276845824</v>
       </c>
       <c r="P12">
-        <v>0.663733347745076</v>
+        <v>0.4227159324971979</v>
       </c>
       <c r="Q12">
-        <v>1.288397484893579</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.6794106508489719</v>
+      </c>
+      <c r="S12">
+        <v>1.138252718721702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.69241813317646</v>
+        <v>1.599804933948036</v>
       </c>
       <c r="C13">
-        <v>0.1680229087414986</v>
+        <v>0.1716946250671398</v>
       </c>
       <c r="D13">
-        <v>0.1269428874896619</v>
+        <v>0.1364451309070915</v>
       </c>
       <c r="E13">
-        <v>0.0985516278569456</v>
+        <v>0.09191153160468701</v>
       </c>
       <c r="F13">
-        <v>0.4983525542403342</v>
+        <v>0.4493775602497436</v>
       </c>
       <c r="G13">
-        <v>0.3511679227677007</v>
+        <v>0.3723730929285693</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.003296108008127518</v>
+        <v>0.003542670802931802</v>
       </c>
       <c r="J13">
-        <v>0.2831654003255721</v>
+        <v>0.2297965553708181</v>
       </c>
       <c r="K13">
-        <v>0.3127389037759549</v>
+        <v>0.2723164009037724</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1279761262771508</v>
       </c>
       <c r="M13">
-        <v>1.438776588507153</v>
+        <v>0.08882000448176797</v>
       </c>
       <c r="N13">
-        <v>0.4134091020712702</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.420548158367751</v>
       </c>
       <c r="P13">
-        <v>0.6650876515594284</v>
+        <v>0.4205304243922541</v>
       </c>
       <c r="Q13">
-        <v>1.286689480481897</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.6801757856988324</v>
+      </c>
+      <c r="S13">
+        <v>1.139450397276889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.662610964403456</v>
+        <v>1.573899813897299</v>
       </c>
       <c r="C14">
-        <v>0.1671369923516508</v>
+        <v>0.1707467007709056</v>
       </c>
       <c r="D14">
-        <v>0.1250105308540981</v>
+        <v>0.1338231686056872</v>
       </c>
       <c r="E14">
-        <v>0.09736751724251391</v>
+        <v>0.09070665638470743</v>
       </c>
       <c r="F14">
-        <v>0.4933822316723138</v>
+        <v>0.4475785181121168</v>
       </c>
       <c r="G14">
-        <v>0.3482684558019855</v>
+        <v>0.3586414424355979</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.00312406678374888</v>
+        <v>0.00340750110725363</v>
       </c>
       <c r="J14">
-        <v>0.2826086807912986</v>
+        <v>0.2394445022580456</v>
       </c>
       <c r="K14">
-        <v>0.3122104501055496</v>
+        <v>0.2734377619769468</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1291081153107374</v>
       </c>
       <c r="M14">
-        <v>1.414277230151072</v>
+        <v>0.08809140097810797</v>
       </c>
       <c r="N14">
-        <v>0.4063780734396261</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.399087855411437</v>
       </c>
       <c r="P14">
-        <v>0.6697368500083876</v>
+        <v>0.4135547928785428</v>
       </c>
       <c r="Q14">
-        <v>1.279326469153972</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.6830676006402392</v>
+      </c>
+      <c r="S14">
+        <v>1.141311296244865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.643560938146635</v>
+        <v>1.557179281267281</v>
       </c>
       <c r="C15">
-        <v>0.1667445445278588</v>
+        <v>0.1703361661554652</v>
       </c>
       <c r="D15">
-        <v>0.1238849618580389</v>
+        <v>0.1322998131211648</v>
       </c>
       <c r="E15">
-        <v>0.09657822871409749</v>
+        <v>0.08991286382825692</v>
       </c>
       <c r="F15">
-        <v>0.4900399007145069</v>
+        <v>0.4460910327746319</v>
       </c>
       <c r="G15">
-        <v>0.3462066315093608</v>
+        <v>0.3504805139958904</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.003110613371465121</v>
+        <v>0.003434256921972079</v>
       </c>
       <c r="J15">
-        <v>0.2821236601168664</v>
+        <v>0.2451285924599134</v>
       </c>
       <c r="K15">
-        <v>0.311607881625978</v>
+        <v>0.2738263423298442</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.129703868101755</v>
       </c>
       <c r="M15">
-        <v>1.399291971371696</v>
+        <v>0.08752608870240763</v>
       </c>
       <c r="N15">
-        <v>0.4021567079441439</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.38584547699017</v>
       </c>
       <c r="P15">
-        <v>0.6727081926347473</v>
+        <v>0.4093594172520767</v>
       </c>
       <c r="Q15">
-        <v>1.273908663431314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.6850563393321814</v>
+      </c>
+      <c r="S15">
+        <v>1.141307860205828</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.53938648704019</v>
+        <v>1.465099196216613</v>
       </c>
       <c r="C16">
-        <v>0.1635586929523427</v>
+        <v>0.1665008497272709</v>
       </c>
       <c r="D16">
-        <v>0.1170732861327508</v>
+        <v>0.1235081202797375</v>
       </c>
       <c r="E16">
-        <v>0.09249577536794718</v>
+        <v>0.08588556584150453</v>
       </c>
       <c r="F16">
-        <v>0.4730769687817826</v>
+        <v>0.4381416874081268</v>
       </c>
       <c r="G16">
-        <v>0.3364577302905047</v>
+        <v>0.3134940865921649</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.002583264834991716</v>
+        <v>0.00299529277137367</v>
       </c>
       <c r="J16">
-        <v>0.2804112572741886</v>
+        <v>0.274993693347767</v>
       </c>
       <c r="K16">
-        <v>0.3100967491608273</v>
+        <v>0.2770696334682512</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1335174605609417</v>
       </c>
       <c r="M16">
-        <v>1.313320922796493</v>
+        <v>0.0848101269921635</v>
       </c>
       <c r="N16">
-        <v>0.3775812467883668</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.308072860175486</v>
       </c>
       <c r="P16">
-        <v>0.6893130185191403</v>
+        <v>0.3847862140416112</v>
       </c>
       <c r="Q16">
-        <v>1.249475474077769</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.6963494999608209</v>
+      </c>
+      <c r="S16">
+        <v>1.143008511091082</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.47545769957415</v>
+        <v>1.407609964584225</v>
       </c>
       <c r="C17">
-        <v>0.1616123763874953</v>
+        <v>0.1638893465876237</v>
       </c>
       <c r="D17">
-        <v>0.1128978282040123</v>
+        <v>0.1183868444634015</v>
       </c>
       <c r="E17">
-        <v>0.09001284153013955</v>
+        <v>0.08351403377378119</v>
       </c>
       <c r="F17">
-        <v>0.4628558903977407</v>
+        <v>0.4321410198798574</v>
       </c>
       <c r="G17">
-        <v>0.3306331316064828</v>
+        <v>0.2970019981322451</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.002336281788916317</v>
+        <v>0.002784577824963108</v>
       </c>
       <c r="J17">
-        <v>0.279456241805903</v>
+        <v>0.2888878908842472</v>
       </c>
       <c r="K17">
-        <v>0.3092779009229893</v>
+        <v>0.2785325293832379</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1357106446207119</v>
       </c>
       <c r="M17">
-        <v>1.260598210897172</v>
+        <v>0.0830247543184619</v>
       </c>
       <c r="N17">
-        <v>0.3625982987439329</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.258852849642523</v>
       </c>
       <c r="P17">
-        <v>0.6997233969501053</v>
+        <v>0.3696878068042508</v>
       </c>
       <c r="Q17">
-        <v>1.235015299135782</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.7040139484539161</v>
+      </c>
+      <c r="S17">
+        <v>1.140709578845588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.440678860736313</v>
+        <v>1.376159145242127</v>
       </c>
       <c r="C18">
-        <v>0.1601173440082491</v>
+        <v>0.1618097773259706</v>
       </c>
       <c r="D18">
-        <v>0.1103510447810976</v>
+        <v>0.1153833051676401</v>
       </c>
       <c r="E18">
-        <v>0.08875890251753304</v>
+        <v>0.08234576781750036</v>
       </c>
       <c r="F18">
-        <v>0.4578364683698624</v>
+        <v>0.4290652582387935</v>
       </c>
       <c r="G18">
-        <v>0.3280960949919134</v>
+        <v>0.2902613085140118</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.001977047381936714</v>
+        <v>0.002388172753556184</v>
       </c>
       <c r="J18">
-        <v>0.2793270306223832</v>
+        <v>0.2952099329109359</v>
       </c>
       <c r="K18">
-        <v>0.3095770747166036</v>
+        <v>0.2798611933624571</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1371646444371137</v>
       </c>
       <c r="M18">
-        <v>1.230227698934755</v>
+        <v>0.08222439684714189</v>
       </c>
       <c r="N18">
-        <v>0.3538147657456676</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.229959794579884</v>
       </c>
       <c r="P18">
-        <v>0.7055364050669155</v>
+        <v>0.3607937463206667</v>
       </c>
       <c r="Q18">
-        <v>1.229301294214181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.708319934455254</v>
+      </c>
+      <c r="S18">
+        <v>1.140516443536256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.427358006444734</v>
+        <v>1.363934279733968</v>
       </c>
       <c r="C19">
-        <v>0.159902994956731</v>
+        <v>0.1614626268041377</v>
       </c>
       <c r="D19">
-        <v>0.1096016490644374</v>
+        <v>0.1144989300864978</v>
       </c>
       <c r="E19">
-        <v>0.08820715335966867</v>
+        <v>0.08183123821457272</v>
       </c>
       <c r="F19">
-        <v>0.4555358155051508</v>
+        <v>0.4273639932734525</v>
       </c>
       <c r="G19">
-        <v>0.3266619060247962</v>
+        <v>0.2877409847869004</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.00204504967475394</v>
+        <v>0.002482152844839547</v>
       </c>
       <c r="J19">
-        <v>0.2789914835113336</v>
+        <v>0.2966896075221328</v>
       </c>
       <c r="K19">
-        <v>0.3091206443872494</v>
+        <v>0.2797606680862614</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1374546272258286</v>
       </c>
       <c r="M19">
-        <v>1.219984187767011</v>
+        <v>0.08174643210686483</v>
       </c>
       <c r="N19">
-        <v>0.3509993239513847</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.22012986737721</v>
       </c>
       <c r="P19">
-        <v>0.7077153819066631</v>
+        <v>0.3579370795364127</v>
       </c>
       <c r="Q19">
-        <v>1.225535804103941</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.7100893045456225</v>
+      </c>
+      <c r="S19">
+        <v>1.138473799361805</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.482421147579998</v>
+        <v>1.41392097581388</v>
       </c>
       <c r="C20">
-        <v>0.1617894783162015</v>
+        <v>0.1641390339898052</v>
       </c>
       <c r="D20">
-        <v>0.1133307156312071</v>
+        <v>0.1189102227417891</v>
       </c>
       <c r="E20">
-        <v>0.09028943053911576</v>
+        <v>0.0837755826320965</v>
       </c>
       <c r="F20">
-        <v>0.4639993634261543</v>
+        <v>0.432881374974194</v>
       </c>
       <c r="G20">
-        <v>0.3313068339897427</v>
+        <v>0.2986015264876301</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.002340344200239208</v>
+        <v>0.002781244859919596</v>
       </c>
       <c r="J20">
-        <v>0.2795845939348851</v>
+        <v>0.2876412168444773</v>
       </c>
       <c r="K20">
-        <v>0.3094183774735555</v>
+        <v>0.2784488203057798</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1355022314675622</v>
       </c>
       <c r="M20">
-        <v>1.266206176674132</v>
+        <v>0.08323932182083027</v>
       </c>
       <c r="N20">
-        <v>0.3641742622345134</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.264143624842717</v>
       </c>
       <c r="P20">
-        <v>0.6985864372808273</v>
+        <v>0.371280007589732</v>
       </c>
       <c r="Q20">
-        <v>1.236724364865267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.7031437158033285</v>
+      </c>
+      <c r="S20">
+        <v>1.141257981216981</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.669117574469169</v>
+        <v>1.577866785370077</v>
       </c>
       <c r="C21">
-        <v>0.1678227216787107</v>
+        <v>0.1711100532039183</v>
       </c>
       <c r="D21">
-        <v>0.1257421787988022</v>
+        <v>0.135183938334734</v>
       </c>
       <c r="E21">
-        <v>0.09752849823879117</v>
+        <v>0.09101016173425691</v>
       </c>
       <c r="F21">
-        <v>0.4939526964222978</v>
+        <v>0.4452274557011293</v>
       </c>
       <c r="G21">
-        <v>0.3482718349248159</v>
+        <v>0.3710975422361003</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.003419809177828803</v>
+        <v>0.003739982562485089</v>
       </c>
       <c r="J21">
-        <v>0.2823413138479651</v>
+        <v>0.2282783036323721</v>
       </c>
       <c r="K21">
-        <v>0.3115490940166126</v>
+        <v>0.2714037900617114</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1281981099108638</v>
       </c>
       <c r="M21">
-        <v>1.421527589037282</v>
+        <v>0.08758662128667183</v>
       </c>
       <c r="N21">
-        <v>0.4086631539709487</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.403057687784781</v>
       </c>
       <c r="P21">
-        <v>0.6686736177544113</v>
+        <v>0.4156435444750883</v>
       </c>
       <c r="Q21">
-        <v>1.278788290108935</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.6834202720187506</v>
+      </c>
+      <c r="S21">
+        <v>1.132226272373188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.7939407064882</v>
+        <v>1.686758210592302</v>
       </c>
       <c r="C22">
-        <v>0.1712550797104484</v>
+        <v>0.1749006956328287</v>
       </c>
       <c r="D22">
-        <v>0.1336586515723468</v>
+        <v>0.1458706421868641</v>
       </c>
       <c r="E22">
-        <v>0.1025701442821436</v>
+        <v>0.09610211324025641</v>
       </c>
       <c r="F22">
-        <v>0.5152888871296852</v>
+        <v>0.4538907017928082</v>
       </c>
       <c r="G22">
-        <v>0.3609683730654183</v>
+        <v>0.4283010198412285</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.004067859825153342</v>
+        <v>0.004185544017309972</v>
       </c>
       <c r="J22">
-        <v>0.2850112123158937</v>
+        <v>0.1966874770419054</v>
       </c>
       <c r="K22">
-        <v>0.3143427900564291</v>
+        <v>0.2675526418274501</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1238585198362454</v>
       </c>
       <c r="M22">
-        <v>1.523052579539723</v>
+        <v>0.09100751966002818</v>
       </c>
       <c r="N22">
-        <v>0.4377834983778968</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.492558763312189</v>
       </c>
       <c r="P22">
-        <v>0.6494887945990264</v>
+        <v>0.4445729079074141</v>
       </c>
       <c r="Q22">
-        <v>1.311502523355614</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.6714075767976055</v>
+      </c>
+      <c r="S22">
+        <v>1.128149781388146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.730037550271106</v>
+        <v>1.632403205438351</v>
       </c>
       <c r="C23">
-        <v>0.1689080136363472</v>
+        <v>0.1725535425486697</v>
       </c>
       <c r="D23">
-        <v>0.129234081441453</v>
+        <v>0.1396370885357783</v>
       </c>
       <c r="E23">
-        <v>0.100097300510658</v>
+        <v>0.09349790013058978</v>
       </c>
       <c r="F23">
-        <v>0.5049100458019566</v>
+        <v>0.4517447375468819</v>
       </c>
       <c r="G23">
-        <v>0.3551611102721637</v>
+        <v>0.3912450371475131</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.003418129426473016</v>
+        <v>0.003591402030809654</v>
       </c>
       <c r="J23">
-        <v>0.2840734197826009</v>
+        <v>0.2179588526001552</v>
       </c>
       <c r="K23">
-        <v>0.3138001297906392</v>
+        <v>0.2711758495986558</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1266779903194433</v>
       </c>
       <c r="M23">
-        <v>1.468791495323643</v>
+        <v>0.08982828524115405</v>
       </c>
       <c r="N23">
-        <v>0.4219430580806716</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.446507866697999</v>
       </c>
       <c r="P23">
-        <v>0.6592862464076781</v>
+        <v>0.428968933954522</v>
       </c>
       <c r="Q23">
-        <v>1.297117936723311</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.6765795439512843</v>
+      </c>
+      <c r="S23">
+        <v>1.137651801989463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.483514396153737</v>
+        <v>1.415235933096767</v>
       </c>
       <c r="C24">
-        <v>0.1609119362923082</v>
+        <v>0.1630062756979882</v>
       </c>
       <c r="D24">
-        <v>0.1128254979439731</v>
+        <v>0.1183515427984503</v>
       </c>
       <c r="E24">
-        <v>0.0905172220622994</v>
+        <v>0.08399958693408749</v>
       </c>
       <c r="F24">
-        <v>0.4651630570010639</v>
+        <v>0.4341752527562974</v>
       </c>
       <c r="G24">
-        <v>0.3326070488289332</v>
+        <v>0.299432790166307</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.001862172650729299</v>
+        <v>0.002203991249903225</v>
       </c>
       <c r="J24">
-        <v>0.2803431444801703</v>
+        <v>0.2889715508917163</v>
       </c>
       <c r="K24">
-        <v>0.310904398974106</v>
+        <v>0.2799086149694325</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1361158869969756</v>
       </c>
       <c r="M24">
-        <v>1.263564862885147</v>
+        <v>0.08370211658566973</v>
       </c>
       <c r="N24">
-        <v>0.3630418558231838</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.26164089172542</v>
       </c>
       <c r="P24">
-        <v>0.6985560707250897</v>
+        <v>0.3701325145870413</v>
       </c>
       <c r="Q24">
-        <v>1.241064495068926</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.7027821316073819</v>
+      </c>
+      <c r="S24">
+        <v>1.145885828032647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.217372905564901</v>
+        <v>1.1680946388839</v>
       </c>
       <c r="C25">
-        <v>0.152356398099208</v>
+        <v>0.1492721511845474</v>
       </c>
       <c r="D25">
-        <v>0.09515095746731106</v>
+        <v>0.09885294278394241</v>
       </c>
       <c r="E25">
-        <v>0.08048717953087703</v>
+        <v>0.07504300429554434</v>
       </c>
       <c r="F25">
-        <v>0.4248529859979158</v>
+        <v>0.4007348710091705</v>
       </c>
       <c r="G25">
-        <v>0.3104471576207715</v>
+        <v>0.276321523341359</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.001100924466151731</v>
+        <v>0.001391640511165804</v>
       </c>
       <c r="J25">
-        <v>0.2776599377172886</v>
+        <v>0.293453715166649</v>
       </c>
       <c r="K25">
-        <v>0.309323862093656</v>
+        <v>0.2825220264076194</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1442062974458089</v>
       </c>
       <c r="M25">
-        <v>1.042340403890421</v>
+        <v>0.07590355632252965</v>
       </c>
       <c r="N25">
-        <v>0.3007208791645866</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.042643744727656</v>
       </c>
       <c r="P25">
-        <v>0.7440075013425691</v>
+        <v>0.3063930838314377</v>
       </c>
       <c r="Q25">
-        <v>1.187978238403559</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7402752720044923</v>
+      </c>
+      <c r="S25">
+        <v>1.111474230559921</v>
       </c>
     </row>
   </sheetData>
